--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902AE346-6A47-475E-9CE8-7AEB266FF3C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB929FD-68E6-49A2-A2DC-2C8CB8176E97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>24.08.2019</t>
   </si>
@@ -141,19 +141,31 @@
     <t>ALL PRESENT</t>
   </si>
   <si>
-    <t>Kodhai</t>
-  </si>
-  <si>
-    <t>Vidhya</t>
-  </si>
-  <si>
-    <t>Sujatha</t>
-  </si>
-  <si>
-    <t>Santhosh</t>
-  </si>
-  <si>
-    <t>Madhavi</t>
+    <t>Sujatha Duvvuru</t>
+  </si>
+  <si>
+    <t>Santhosh Annadurai</t>
+  </si>
+  <si>
+    <t>Madhavi Kutty</t>
+  </si>
+  <si>
+    <t>Kodhai nayagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kodhai nayagi</t>
+  </si>
+  <si>
+    <t>Santhosh mavvuri</t>
+  </si>
+  <si>
+    <t>Leeju jothi</t>
+  </si>
+  <si>
+    <t>Vidhya vasu</t>
+  </si>
+  <si>
+    <t>Sujatha duvvuru</t>
   </si>
 </sst>
 </file>
@@ -490,7 +502,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,6 +579,9 @@
       <c r="C8" t="s">
         <v>38</v>
       </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -622,8 +637,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -756,13 +771,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -778,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -802,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -810,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -818,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,20 +841,23 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,20 +873,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB929FD-68E6-49A2-A2DC-2C8CB8176E97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E818A2F0-B13D-4777-B277-8603FF85C28F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>24.08.2019</t>
   </si>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,6 +580,9 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -770,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EBE1A0-DA33-41FC-BDBE-6184CA41A04E}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E818A2F0-B13D-4777-B277-8603FF85C28F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C775ED-F6E7-4337-B8A9-F0146BB22441}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>24.08.2019</t>
   </si>
@@ -502,7 +502,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +548,9 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -567,6 +570,9 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C775ED-F6E7-4337-B8A9-F0146BB22441}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28BB7DB-0C14-40F0-9CFB-BEE3BF6667DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
-  <si>
-    <t>24.08.2019</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -166,6 +163,45 @@
   </si>
   <si>
     <t>Sujatha duvvuru</t>
+  </si>
+  <si>
+    <t>26.08.2019 MON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.08.2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.08.2019 </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Vamsi</t>
+  </si>
+  <si>
+    <t>Vidya</t>
   </si>
 </sst>
 </file>
@@ -499,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,121 +549,184 @@
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -652,122 +751,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -791,122 +890,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28BB7DB-0C14-40F0-9CFB-BEE3BF6667DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAD8870-F8C2-4FBB-A883-7D93DCE24A33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Vidya</t>
+  </si>
+  <si>
+    <t>27.08.2019 TUE</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,9 +555,10 @@
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -582,13 +586,16 @@
       <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -605,7 +612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -616,7 +623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -627,7 +634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -638,7 +645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -652,7 +659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -674,8 +681,11 @@
       <c r="H8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -683,7 +693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -691,22 +701,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -714,12 +724,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAD8870-F8C2-4FBB-A883-7D93DCE24A33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93444C00-7BF9-4BBD-AFB5-3EE05975206A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>27.08.2019 TUE</t>
+  </si>
+  <si>
+    <t>28.08.2019 WED</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,9 +559,10 @@
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -589,13 +593,16 @@
       <c r="J1" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -612,7 +619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -623,7 +630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -634,7 +641,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -645,7 +652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -659,7 +666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -684,8 +691,11 @@
       <c r="J8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -693,7 +703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -701,22 +711,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -724,12 +734,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAD8870-F8C2-4FBB-A883-7D93DCE24A33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D48C5-2F6B-42F2-A475-C84C1B3CF6EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="64">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>27.08.2019 TUE</t>
+  </si>
+  <si>
+    <t>28.08.2019 WED</t>
+  </si>
+  <si>
+    <t>29.08.2019 THUR</t>
+  </si>
+  <si>
+    <t>30.08.2019 FRI</t>
   </si>
 </sst>
 </file>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,10 +564,12 @@
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="10" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -589,13 +600,22 @@
       <c r="J1" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -612,7 +632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -623,7 +643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -633,8 +653,14 @@
       <c r="H5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -645,7 +671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -659,7 +685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -685,7 +711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -693,30 +719,33 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -724,12 +753,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93444C00-7BF9-4BBD-AFB5-3EE05975206A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6B6D31-334A-4D7A-8FAB-CCEE94056F0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -208,6 +208,24 @@
   </si>
   <si>
     <t>28.08.2019 WED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.09.2019 THUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.08.2019 FRI </t>
+  </si>
+  <si>
+    <t>31.09.2019 SAT</t>
+  </si>
+  <si>
+    <t>01.09.2019 SUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.09.2019 MON </t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -541,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,9 +578,14 @@
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -596,13 +619,28 @@
       <c r="K1" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -619,7 +657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -629,8 +667,11 @@
       <c r="H4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -640,8 +681,20 @@
       <c r="H5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -651,8 +704,17 @@
       <c r="H6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -665,8 +727,17 @@
       <c r="H7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -694,39 +765,72 @@
       <c r="K8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -734,19 +838,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6B6D31-334A-4D7A-8FAB-CCEE94056F0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A52654-0217-4A7F-A65A-847108CBEC55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
